--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -350,6 +350,9 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
